--- a/biology/Microbiologie/Sinorhizobium_meliloti/Sinorhizobium_meliloti.xlsx
+++ b/biology/Microbiologie/Sinorhizobium_meliloti/Sinorhizobium_meliloti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sinorhizobium meliloti est une bactérie Gram négative qui peut former une relation symbiotique en fixant l'azote atmosphérique, avec certaines plantes de la famille des Fabacées (Medicago, Melilotus et Trigonella) au travers de nodosités.
 Elle renferme trois chromosomes circulaire, avec une seule copie par chromosome(n). La taille du génome est de 6,7Mb (millions de paires de bases). 
